--- a/fhir/core/3.3.0/StructureDefinition-dk-core-d-ecpr-identifier.xlsx
+++ b/fhir/core/3.3.0/StructureDefinition-dk-core-d-ecpr-identifier.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:51:05+01:00</t>
+    <t>2024-12-11T10:16:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
